--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.999949952443315</v>
+        <v>0.9999852330479696</v>
       </c>
       <c r="E2">
-        <v>0.999949952443315</v>
+        <v>0.9999852330479696</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6558386464586037</v>
+        <v>0.04570114962313795</v>
       </c>
       <c r="E3">
-        <v>0.6558386464586037</v>
+        <v>0.04570114962313795</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9898565366707021</v>
+        <v>0.972847354826792</v>
       </c>
       <c r="E4">
-        <v>0.9898565366707021</v>
+        <v>0.972847354826792</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.01090180503207621</v>
+        <v>0.003132376245777385</v>
       </c>
       <c r="E5">
-        <v>0.01090180503207621</v>
+        <v>0.003132376245777385</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6.973226717972957E-11</v>
+        <v>3.096311348770248E-10</v>
       </c>
       <c r="E6">
-        <v>6.973226717972957E-11</v>
+        <v>3.096311348770248E-10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999986271841</v>
+        <v>0.9999999995284132</v>
       </c>
       <c r="E7">
-        <v>1.372815860989363E-09</v>
+        <v>4.715867696347686E-10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999992904799406</v>
+        <v>0.9999904521862558</v>
       </c>
       <c r="E8">
-        <v>7.095200593720818E-07</v>
+        <v>9.547813744181788E-06</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999814747414818</v>
+        <v>0.9999999999965052</v>
       </c>
       <c r="E9">
-        <v>1.852525851819831E-05</v>
+        <v>3.494760036915068E-12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9997966532892966</v>
+        <v>0.9999278824782953</v>
       </c>
       <c r="E10">
-        <v>0.0002033467107034337</v>
+        <v>7.211752170466212E-05</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999986949786</v>
+        <v>0.999999999995999</v>
       </c>
       <c r="E11">
-        <v>1.305021424258257E-09</v>
+        <v>4.001021736144139E-12</v>
       </c>
       <c r="F11">
-        <v>1.557129144668579</v>
+        <v>1.47793984413147</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
